--- a/1_Basics/1_Spreadsheets_Intro/1_Worksheets.xlsx
+++ b/1_Basics/1_Spreadsheets_Intro/1_Worksheets.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\1_Basics\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71236469-F34B-4683-8C38-E615AF8D9C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C95097-CF98-4CD5-A5B0-9C4685FAE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1_Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="2_First_Worksheet_Org" sheetId="2" r:id="rId2"/>
+    <sheet name="2_First_Worksheet_Final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +37,112 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Row </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>↕</t>
+    </r>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Sold Date</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +512,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7C4F8B-A04D-47EC-ACB1-555F7D06F2D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD01CE1-447B-4580-AD72-8A7C73FE71DB}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45479</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>50</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45477</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
+        <v>140</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>46573</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F162AAF8-2073-4780-B9E7-D89B3B9F9DBA}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45479</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>60</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45477</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
+        <v>140</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>